--- a/EvaluationData/ReferencSet/Uncertainty_Template_ReferenceSet.xlsx
+++ b/EvaluationData/ReferencSet/Uncertainty_Template_ReferenceSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\MasterThesis\Evaluation\ReferenceSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\ReferencSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF203F9-FBE5-4055-99EE-E98BB4B117F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC2E7AA-30E4-46E4-A2F5-159C5D137E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="144">
   <si>
     <t>Nature</t>
   </si>
@@ -673,17 +673,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,27 +999,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="36" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1144,10 +1144,10 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1156,19 +1156,19 @@
       <c r="D5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1203,19 +1203,19 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
@@ -1248,19 +1248,19 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="6" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="2" t="s">
         <v>57</v>
       </c>
@@ -1293,19 +1293,19 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="30" t="s">
         <v>57</v>
       </c>
@@ -1338,19 +1338,19 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="24" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1363,6 +1363,12 @@
       <c r="M9" s="28" t="s">
         <v>62</v>
       </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="P9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1370,17 +1376,17 @@
         <v>38</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="36" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1389,19 +1395,19 @@
       <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1436,19 +1442,19 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="5" t="s">
         <v>56</v>
       </c>
@@ -1481,19 +1487,19 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="10" t="s">
         <v>132</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="23" t="s">
         <v>57</v>
       </c>
@@ -1526,19 +1532,19 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="12" t="s">
         <v>14</v>
       </c>
@@ -1571,10 +1577,10 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1583,19 +1589,19 @@
       <c r="D14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="25" t="s">
@@ -1630,19 +1636,19 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="16" t="s">
         <v>133</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="25" t="s">
         <v>57</v>
       </c>
@@ -1675,19 +1681,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="25" t="s">
         <v>57</v>
       </c>
@@ -1720,19 +1726,19 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="30" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="30" t="s">
         <v>58</v>
       </c>
@@ -1765,19 +1771,19 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="25" t="s">
         <v>57</v>
       </c>
@@ -1810,10 +1816,10 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1822,19 +1828,19 @@
       <c r="D19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="25" t="s">
@@ -1869,19 +1875,19 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="25" t="s">
         <v>56</v>
       </c>
@@ -1914,19 +1920,19 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="29" t="s">
         <v>57</v>
       </c>
@@ -2018,10 +2024,10 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2030,19 +2036,19 @@
       <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J23" s="29" t="s">
@@ -2077,19 +2083,19 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6" t="s">
         <v>134</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="29" t="s">
         <v>57</v>
       </c>
@@ -2122,19 +2128,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="6" t="s">
         <v>135</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="29" t="s">
         <v>57</v>
       </c>
@@ -2167,10 +2173,10 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="36" t="s">
         <v>113</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -2179,19 +2185,19 @@
       <c r="D26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="29" t="s">
@@ -2226,19 +2232,19 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="29" t="s">
         <v>57</v>
       </c>
@@ -2271,19 +2277,19 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="29" t="s">
         <v>57</v>
       </c>
@@ -2316,19 +2322,19 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="29" t="s">
         <v>56</v>
       </c>
@@ -2361,10 +2367,10 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="36" t="s">
         <v>114</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -2373,19 +2379,19 @@
       <c r="D30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="25" t="s">
@@ -2420,19 +2426,19 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="25" t="s">
         <v>57</v>
       </c>
@@ -2465,19 +2471,19 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="25" t="s">
         <v>57</v>
       </c>
@@ -2510,19 +2516,19 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="15" t="s">
         <v>129</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="25" t="s">
         <v>14</v>
       </c>
@@ -2555,19 +2561,19 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="30" t="s">
         <v>57</v>
       </c>
@@ -2600,19 +2606,19 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="12" t="s">
         <v>128</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="25" t="s">
         <v>57</v>
       </c>
@@ -2645,10 +2651,10 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="36" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -2657,19 +2663,19 @@
       <c r="D36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="36" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="25" t="s">
@@ -2704,19 +2710,19 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="25" t="s">
         <v>58</v>
       </c>
@@ -2749,19 +2755,19 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="5" t="s">
         <v>57</v>
       </c>
@@ -2794,19 +2800,19 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="12" t="s">
         <v>58</v>
       </c>
@@ -2839,19 +2845,19 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="12" t="s">
         <v>128</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="12" t="s">
         <v>57</v>
       </c>
@@ -2884,19 +2890,19 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="15" t="s">
         <v>129</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="15" t="s">
         <v>14</v>
       </c>
@@ -2929,19 +2935,19 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="30" t="s">
         <v>57</v>
       </c>
@@ -2974,19 +2980,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="12" t="s">
         <v>140</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="5" t="s">
         <v>58</v>
       </c>
@@ -5946,6 +5952,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G14:G18"/>
     <mergeCell ref="J1:S1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A10:A13"/>
@@ -5962,51 +6013,6 @@
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="I5:I9"/>
     <mergeCell ref="H5:H9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="E36:E43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="17">

--- a/EvaluationData/ReferencSet/Uncertainty_Template_ReferenceSet.xlsx
+++ b/EvaluationData/ReferencSet/Uncertainty_Template_ReferenceSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\ReferencSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC2E7AA-30E4-46E4-A2F5-159C5D137E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96840985-1A0C-42E0-A679-A99C6D2DBD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="147">
   <si>
     <t>Nature</t>
   </si>
@@ -308,9 +308,6 @@
     <t>Is the component's provider trustworthy?</t>
   </si>
   <si>
-    <t>Which authentication mechanisms are chosen?</t>
-  </si>
-  <si>
     <t>What data is provided?</t>
   </si>
   <si>
@@ -481,13 +478,25 @@
   </si>
   <si>
     <t>U19</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>No classification possible</t>
+  </si>
+  <si>
+    <t>Ambiguous classification possible</t>
+  </si>
+  <si>
+    <t>Which authentication mechanisms are used?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +542,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -543,13 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -634,9 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -655,10 +668,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -671,6 +684,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -689,6 +714,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -973,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,35 +1033,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>54</v>
@@ -1076,23 +1110,23 @@
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>69</v>
@@ -1121,7 +1155,7 @@
       <c r="L4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>62</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1144,31 +1178,31 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>107</v>
+      <c r="A5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1203,19 +1237,19 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
@@ -1248,19 +1282,19 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="2" t="s">
         <v>57</v>
       </c>
@@ -1293,64 +1327,64 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="29" t="s">
         <v>57</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="24" t="s">
-        <v>118</v>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1360,7 +1394,7 @@
       <c r="L9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="27" t="s">
         <v>62</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1383,31 +1417,31 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>108</v>
+      <c r="B10" s="39" t="s">
+        <v>107</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="39" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1416,10 +1450,10 @@
       <c r="K10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="24" t="s">
         <v>64</v>
       </c>
       <c r="N10" s="17" t="s">
@@ -1442,29 +1476,29 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+        <v>104</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="5" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="24" t="s">
         <v>64</v>
       </c>
       <c r="N11" s="17" t="s">
@@ -1487,74 +1521,74 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="23" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="22" t="s">
         <v>57</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="R12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="12" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="24" t="s">
         <v>63</v>
       </c>
       <c r="N13" s="17" t="s">
@@ -1577,43 +1611,43 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>109</v>
+      <c r="A14" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N14" s="17" t="s">
@@ -1625,7 +1659,7 @@
       <c r="P14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="22" t="s">
+      <c r="Q14" s="21" t="s">
         <v>41</v>
       </c>
       <c r="R14" s="5" t="s">
@@ -1636,29 +1670,29 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="25" t="s">
-        <v>57</v>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N15" s="17" t="s">
@@ -1681,29 +1715,29 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N16" s="17" t="s">
@@ -1726,74 +1760,74 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="30" t="s">
-        <v>127</v>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="29" t="s">
         <v>58</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q17" s="30" t="s">
+      <c r="Q17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="30" t="s">
+      <c r="R17" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="30" t="s">
+      <c r="S17" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="25" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N18" s="17" t="s">
@@ -1816,43 +1850,43 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N19" s="17" t="s">
@@ -1875,29 +1909,29 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="25" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="24" t="s">
         <v>56</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="25" t="s">
         <v>64</v>
       </c>
       <c r="N20" s="17" t="s">
@@ -1920,29 +1954,29 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="29" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="28" t="s">
         <v>57</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N21" s="17" t="s">
@@ -1955,7 +1989,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>6</v>
@@ -1968,14 +2002,14 @@
       <c r="A22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>111</v>
+      <c r="B22" s="30" t="s">
+        <v>110</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>7</v>
@@ -1992,16 +2026,16 @@
       <c r="I22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="43" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="24" t="s">
         <v>65</v>
       </c>
       <c r="N22" s="17" t="s">
@@ -2013,7 +2047,7 @@
       <c r="P22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="22" t="s">
+      <c r="Q22" s="21" t="s">
         <v>43</v>
       </c>
       <c r="R22" s="12" t="s">
@@ -2024,43 +2058,43 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>112</v>
+      <c r="B23" s="39" t="s">
+        <v>111</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="43" t="s">
         <v>57</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="28" t="s">
         <v>65</v>
       </c>
       <c r="N23" s="17" t="s">
@@ -2083,29 +2117,29 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="29" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="28" t="s">
         <v>57</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="28" t="s">
         <v>65</v>
       </c>
       <c r="N24" s="17" t="s">
@@ -2128,29 +2162,29 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="29" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="28" t="s">
         <v>57</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="28" t="s">
         <v>65</v>
       </c>
       <c r="N25" s="17" t="s">
@@ -2165,7 +2199,7 @@
       <c r="Q25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="43" t="s">
         <v>50</v>
       </c>
       <c r="S25" s="5" t="s">
@@ -2173,43 +2207,43 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>113</v>
+      <c r="A26" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>112</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="L26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="26" t="s">
         <v>62</v>
       </c>
       <c r="N26" s="17" t="s">
@@ -2232,29 +2266,29 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="28" t="s">
         <v>57</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N27" s="17" t="s">
@@ -2269,7 +2303,7 @@
       <c r="Q27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R27" s="20" t="s">
+      <c r="R27" s="43" t="s">
         <v>50</v>
       </c>
       <c r="S27" s="12" t="s">
@@ -2277,29 +2311,29 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="29" t="s">
+      <c r="E28" s="42"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="28" t="s">
         <v>57</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N28" s="17" t="s">
@@ -2322,29 +2356,29 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="29" t="s">
+      <c r="E29" s="42"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="43" t="s">
         <v>56</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N29" s="17" t="s">
@@ -2367,43 +2401,43 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>114</v>
+      <c r="A30" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L30" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="26" t="s">
+      <c r="M30" s="25" t="s">
         <v>65</v>
       </c>
       <c r="N30" s="17" t="s">
@@ -2415,7 +2449,7 @@
       <c r="P30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q30" s="22" t="s">
+      <c r="Q30" s="21" t="s">
         <v>46</v>
       </c>
       <c r="R30" s="5" t="s">
@@ -2426,29 +2460,29 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="25" t="s">
-        <v>57</v>
+        <v>92</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="44" t="s">
+        <v>58</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="25" t="s">
         <v>65</v>
       </c>
       <c r="N31" s="17" t="s">
@@ -2471,29 +2505,29 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="25" t="s">
+      <c r="E32" s="42"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="L32" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="25" t="s">
         <v>65</v>
       </c>
       <c r="N32" s="17" t="s">
@@ -2505,7 +2539,7 @@
       <c r="P32" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q32" s="22" t="s">
+      <c r="Q32" s="21" t="s">
         <v>43</v>
       </c>
       <c r="R32" s="5" t="s">
@@ -2516,29 +2550,29 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="24" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="25" t="s">
         <v>65</v>
       </c>
       <c r="N33" s="17" t="s">
@@ -2561,74 +2595,74 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="30" t="s">
-        <v>123</v>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="29" t="s">
         <v>57</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L34" s="30" t="s">
+      <c r="L34" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M34" s="30" t="s">
+      <c r="M34" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="N34" s="30" t="s">
+      <c r="N34" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="30" t="s">
+      <c r="O34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="P34" s="30" t="s">
+      <c r="P34" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q34" s="30" t="s">
+      <c r="Q34" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="R34" s="30" t="s">
+      <c r="R34" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S34" s="30" t="s">
+      <c r="S34" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="24" t="s">
         <v>57</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N35" s="17" t="s">
@@ -2640,7 +2674,7 @@
       <c r="P35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q35" s="22" t="s">
+      <c r="Q35" s="21" t="s">
         <v>48</v>
       </c>
       <c r="R35" s="5" t="s">
@@ -2651,43 +2685,43 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>115</v>
+      <c r="A36" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>114</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="24" t="s">
         <v>58</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="26" t="s">
+      <c r="M36" s="25" t="s">
         <v>65</v>
       </c>
       <c r="N36" s="17" t="s">
@@ -2710,29 +2744,29 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="44" t="s">
         <v>58</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="25" t="s">
         <v>65</v>
       </c>
       <c r="N37" s="17" t="s">
@@ -2755,29 +2789,29 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="5" t="s">
         <v>57</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="25" t="s">
         <v>65</v>
       </c>
       <c r="N38" s="17" t="s">
@@ -2789,7 +2823,7 @@
       <c r="P38" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q38" s="22" t="s">
+      <c r="Q38" s="21" t="s">
         <v>43</v>
       </c>
       <c r="R38" s="5" t="s">
@@ -2800,29 +2834,29 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+        <v>91</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="12" t="s">
         <v>58</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="26" t="s">
+      <c r="M39" s="25" t="s">
         <v>67</v>
       </c>
       <c r="N39" s="17" t="s">
@@ -2845,29 +2879,29 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="12" t="s">
         <v>57</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="L40" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M40" s="26" t="s">
+      <c r="M40" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N40" s="17" t="s">
@@ -2879,7 +2913,7 @@
       <c r="P40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q40" s="22" t="s">
+      <c r="Q40" s="21" t="s">
         <v>48</v>
       </c>
       <c r="R40" s="12" t="s">
@@ -2890,29 +2924,29 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+        <v>87</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
       <c r="J41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L41" s="26" t="s">
+      <c r="L41" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M41" s="26" t="s">
+      <c r="M41" s="25" t="s">
         <v>65</v>
       </c>
       <c r="N41" s="17" t="s">
@@ -2935,74 +2969,74 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="30" t="s">
-        <v>123</v>
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="29" t="s">
         <v>57</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M42" s="30" t="s">
+      <c r="M42" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="N42" s="30" t="s">
+      <c r="N42" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O42" s="30" t="s">
+      <c r="O42" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="P42" s="30" t="s">
+      <c r="P42" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q42" s="30" t="s">
+      <c r="Q42" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="R42" s="30" t="s">
+      <c r="R42" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S42" s="30" t="s">
+      <c r="S42" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
       <c r="J43" s="5" t="s">
         <v>58</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="26" t="s">
+      <c r="M43" s="25" t="s">
         <v>67</v>
       </c>
       <c r="N43" s="17" t="s">
@@ -3025,31 +3059,31 @@
       </c>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>116</v>
+      <c r="B44" s="30" t="s">
+        <v>115</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="21" t="s">
         <v>9</v>
       </c>
       <c r="J44" s="5" t="s">
@@ -3058,22 +3092,22 @@
       <c r="K44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L44" s="26" t="s">
+      <c r="L44" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="26" t="s">
+      <c r="M44" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N44" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O44" s="22" t="s">
+      <c r="O44" s="21" t="s">
         <v>36</v>
       </c>
       <c r="P44" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q44" s="29" t="s">
+      <c r="Q44" s="28" t="s">
         <v>48</v>
       </c>
       <c r="R44" s="5" t="s">
@@ -3085,16 +3119,16 @@
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>117</v>
+        <v>97</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>116</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>21</v>
@@ -3117,10 +3151,10 @@
       <c r="K45" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L45" s="26" t="s">
+      <c r="L45" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M45" s="26" t="s">
+      <c r="M45" s="25" t="s">
         <v>65</v>
       </c>
       <c r="N45" s="17" t="s">
@@ -3132,7 +3166,7 @@
       <c r="P45" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q45" s="29" t="s">
+      <c r="Q45" s="28" t="s">
         <v>49</v>
       </c>
       <c r="R45" s="5" t="s">
@@ -3144,7 +3178,7 @@
     </row>
     <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="32"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="8"/>
       <c r="D46" s="1"/>
       <c r="E46" s="5"/>
@@ -3154,8 +3188,8 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="17"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="25"/>
       <c r="N46" s="17"/>
       <c r="O46" s="16"/>
       <c r="P46" s="16"/>
@@ -3175,8 +3209,8 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="17"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="26"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="25"/>
       <c r="N47" s="17"/>
       <c r="O47" s="16"/>
       <c r="P47" s="16"/>
@@ -3196,8 +3230,8 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
       <c r="N48" s="17"/>
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
@@ -3206,8 +3240,10 @@
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" s="32"/>
       <c r="C49" s="8"/>
       <c r="D49" s="1"/>
       <c r="E49" s="5"/>
@@ -3217,8 +3253,8 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="17"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
       <c r="N49" s="17"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
@@ -3227,8 +3263,10 @@
       <c r="S49" s="5"/>
     </row>
     <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="34"/>
       <c r="C50" s="8"/>
       <c r="D50" s="1"/>
       <c r="E50" s="5"/>
@@ -3238,8 +3276,8 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="17"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
       <c r="N50" s="17"/>
       <c r="O50" s="16"/>
       <c r="P50" s="16"/>
@@ -3248,6 +3286,10 @@
       <c r="S50" s="5"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="35"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="16"/>
@@ -3255,8 +3297,8 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="17"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
       <c r="N51" s="17"/>
       <c r="O51" s="16"/>
       <c r="P51" s="16"/>
@@ -3272,8 +3314,8 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="17"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
       <c r="N52" s="17"/>
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
@@ -3289,8 +3331,8 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="17"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
       <c r="N53" s="17"/>
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
@@ -3306,8 +3348,8 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="17"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
       <c r="N54" s="17"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
@@ -3323,8 +3365,8 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="17"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
       <c r="N55" s="17"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
@@ -3340,8 +3382,8 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="17"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
       <c r="N56" s="17"/>
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
@@ -3357,8 +3399,8 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="17"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
       <c r="N57" s="17"/>
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
@@ -3374,8 +3416,8 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="17"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
       <c r="N58" s="17"/>
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
@@ -3391,8 +3433,8 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="17"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
       <c r="N59" s="17"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16"/>
@@ -3408,8 +3450,8 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="17"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
       <c r="N60" s="17"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
@@ -3425,8 +3467,8 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="17"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
       <c r="N61" s="17"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
@@ -3442,8 +3484,8 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="17"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
       <c r="N62" s="17"/>
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
@@ -3459,8 +3501,8 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="17"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
       <c r="N63" s="17"/>
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
@@ -3476,8 +3518,8 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="17"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
       <c r="N64" s="17"/>
       <c r="O64" s="16"/>
       <c r="P64" s="16"/>
@@ -3493,8 +3535,8 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="17"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
       <c r="N65" s="17"/>
       <c r="O65" s="16"/>
       <c r="P65" s="16"/>
@@ -3510,8 +3552,8 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="17"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
       <c r="N66" s="17"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
@@ -3527,8 +3569,8 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="17"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
       <c r="N67" s="17"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
@@ -3544,8 +3586,8 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="17"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
       <c r="N68" s="17"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
@@ -3561,8 +3603,8 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="17"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
       <c r="N69" s="17"/>
       <c r="O69" s="16"/>
       <c r="P69" s="16"/>
@@ -3578,8 +3620,8 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="17"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
       <c r="N70" s="17"/>
       <c r="O70" s="16"/>
       <c r="P70" s="16"/>
@@ -3595,8 +3637,8 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="17"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
       <c r="N71" s="17"/>
       <c r="O71" s="16"/>
       <c r="P71" s="16"/>
@@ -3612,8 +3654,8 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="17"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
       <c r="N72" s="17"/>
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
@@ -3629,8 +3671,8 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="17"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
       <c r="N73" s="17"/>
       <c r="O73" s="16"/>
       <c r="P73" s="16"/>
@@ -3646,8 +3688,8 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="17"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
       <c r="N74" s="17"/>
       <c r="O74" s="16"/>
       <c r="P74" s="16"/>
@@ -3663,8 +3705,8 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="17"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
       <c r="N75" s="17"/>
       <c r="O75" s="16"/>
       <c r="P75" s="16"/>
@@ -3680,8 +3722,8 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="17"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
       <c r="N76" s="17"/>
       <c r="O76" s="16"/>
       <c r="P76" s="16"/>
@@ -3697,8 +3739,8 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="17"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
       <c r="N77" s="17"/>
       <c r="O77" s="16"/>
       <c r="P77" s="16"/>
@@ -3714,8 +3756,8 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="17"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
       <c r="N78" s="17"/>
       <c r="O78" s="16"/>
       <c r="P78" s="16"/>
@@ -3731,8 +3773,8 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
       <c r="N79" s="17"/>
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
@@ -3748,8 +3790,8 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
       <c r="N80" s="17"/>
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
@@ -3765,8 +3807,8 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
       <c r="N81" s="17"/>
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
@@ -3782,8 +3824,8 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
       <c r="N82" s="17"/>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
@@ -3799,8 +3841,8 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
       <c r="N83" s="17"/>
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
@@ -3816,8 +3858,8 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
       <c r="N84" s="17"/>
       <c r="O84" s="16"/>
       <c r="P84" s="16"/>
@@ -3833,8 +3875,8 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
       <c r="N85" s="17"/>
       <c r="O85" s="16"/>
       <c r="P85" s="16"/>
@@ -3850,8 +3892,8 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
       <c r="N86" s="17"/>
       <c r="O86" s="16"/>
       <c r="P86" s="16"/>
@@ -3867,8 +3909,8 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="17"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
       <c r="N87" s="17"/>
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
@@ -3884,8 +3926,8 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="17"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
       <c r="N88" s="17"/>
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
@@ -3901,8 +3943,8 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="17"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
       <c r="N89" s="17"/>
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
@@ -3918,8 +3960,8 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="17"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
       <c r="N90" s="17"/>
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
@@ -3935,8 +3977,8 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="17"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
       <c r="N91" s="17"/>
       <c r="O91" s="16"/>
       <c r="P91" s="16"/>
@@ -3952,8 +3994,8 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="17"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
       <c r="N92" s="17"/>
       <c r="O92" s="16"/>
       <c r="P92" s="16"/>
@@ -3969,8 +4011,8 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="17"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
       <c r="N93" s="17"/>
       <c r="O93" s="16"/>
       <c r="P93" s="16"/>
@@ -3986,8 +4028,8 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="17"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="25"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
       <c r="N94" s="17"/>
       <c r="O94" s="16"/>
       <c r="P94" s="16"/>
@@ -4003,8 +4045,8 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="17"/>
-      <c r="L95" s="25"/>
-      <c r="M95" s="25"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
       <c r="N95" s="17"/>
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
@@ -4020,8 +4062,8 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="17"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="25"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
       <c r="N96" s="17"/>
       <c r="O96" s="16"/>
       <c r="P96" s="16"/>
@@ -4037,8 +4079,8 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="17"/>
-      <c r="L97" s="25"/>
-      <c r="M97" s="25"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
       <c r="N97" s="17"/>
       <c r="O97" s="16"/>
       <c r="P97" s="16"/>
@@ -4054,8 +4096,8 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="17"/>
-      <c r="L98" s="25"/>
-      <c r="M98" s="25"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
       <c r="N98" s="17"/>
       <c r="O98" s="16"/>
       <c r="P98" s="16"/>
@@ -4071,8 +4113,8 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="17"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="25"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
       <c r="N99" s="17"/>
       <c r="O99" s="16"/>
       <c r="P99" s="16"/>
@@ -4088,8 +4130,8 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="17"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
       <c r="N100" s="17"/>
       <c r="O100" s="16"/>
       <c r="P100" s="16"/>
@@ -4105,8 +4147,8 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="17"/>
-      <c r="L101" s="25"/>
-      <c r="M101" s="25"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
       <c r="N101" s="17"/>
       <c r="O101" s="16"/>
       <c r="P101" s="16"/>
@@ -4122,8 +4164,8 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="17"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
       <c r="N102" s="17"/>
       <c r="O102" s="16"/>
       <c r="P102" s="16"/>
@@ -4139,8 +4181,8 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="17"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
       <c r="N103" s="17"/>
       <c r="O103" s="16"/>
       <c r="P103" s="16"/>
@@ -4156,8 +4198,8 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="17"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25"/>
+      <c r="L104" s="24"/>
+      <c r="M104" s="24"/>
       <c r="N104" s="17"/>
       <c r="O104" s="16"/>
       <c r="P104" s="16"/>
@@ -4173,8 +4215,8 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="17"/>
-      <c r="L105" s="25"/>
-      <c r="M105" s="25"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
       <c r="N105" s="17"/>
       <c r="O105" s="16"/>
       <c r="P105" s="16"/>
@@ -4190,8 +4232,8 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="17"/>
-      <c r="L106" s="25"/>
-      <c r="M106" s="25"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="24"/>
       <c r="N106" s="17"/>
       <c r="O106" s="16"/>
       <c r="P106" s="16"/>
@@ -4207,8 +4249,8 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="17"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="25"/>
+      <c r="L107" s="24"/>
+      <c r="M107" s="24"/>
       <c r="N107" s="17"/>
       <c r="O107" s="16"/>
       <c r="P107" s="16"/>
@@ -4224,8 +4266,8 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="17"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="25"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
       <c r="N108" s="17"/>
       <c r="O108" s="16"/>
       <c r="P108" s="16"/>
@@ -4241,8 +4283,8 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="17"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="25"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="24"/>
       <c r="N109" s="17"/>
       <c r="O109" s="16"/>
       <c r="P109" s="16"/>
@@ -4258,8 +4300,8 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="17"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="25"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
       <c r="N110" s="17"/>
       <c r="O110" s="16"/>
       <c r="P110" s="16"/>
@@ -4275,8 +4317,8 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="17"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="25"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
       <c r="N111" s="17"/>
       <c r="O111" s="16"/>
       <c r="P111" s="16"/>
@@ -4292,8 +4334,8 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="17"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="25"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
       <c r="N112" s="17"/>
       <c r="O112" s="16"/>
       <c r="P112" s="16"/>
@@ -4309,8 +4351,8 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="17"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
       <c r="N113" s="17"/>
       <c r="O113" s="16"/>
       <c r="P113" s="16"/>
@@ -4326,8 +4368,8 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="17"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="25"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
       <c r="N114" s="17"/>
       <c r="O114" s="16"/>
       <c r="P114" s="16"/>
@@ -4343,8 +4385,8 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="17"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="25"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="24"/>
       <c r="N115" s="17"/>
       <c r="O115" s="16"/>
       <c r="P115" s="16"/>
@@ -4360,8 +4402,8 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="17"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="25"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="24"/>
       <c r="N116" s="17"/>
       <c r="O116" s="16"/>
       <c r="P116" s="16"/>
@@ -4377,8 +4419,8 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="17"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="25"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
       <c r="N117" s="17"/>
       <c r="O117" s="16"/>
       <c r="P117" s="16"/>
@@ -4394,8 +4436,8 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="17"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
       <c r="N118" s="17"/>
       <c r="O118" s="16"/>
       <c r="P118" s="16"/>
@@ -4411,8 +4453,8 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="17"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="25"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
       <c r="N119" s="17"/>
       <c r="O119" s="16"/>
       <c r="P119" s="16"/>
@@ -4428,8 +4470,8 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="17"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="25"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
       <c r="N120" s="17"/>
       <c r="O120" s="16"/>
       <c r="P120" s="16"/>
@@ -4445,8 +4487,8 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="17"/>
-      <c r="L121" s="25"/>
-      <c r="M121" s="25"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
       <c r="N121" s="17"/>
       <c r="O121" s="16"/>
       <c r="P121" s="16"/>
@@ -4462,8 +4504,8 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="17"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
       <c r="N122" s="17"/>
       <c r="O122" s="16"/>
       <c r="P122" s="16"/>
@@ -4479,8 +4521,8 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="17"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="25"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
       <c r="N123" s="17"/>
       <c r="O123" s="16"/>
       <c r="P123" s="16"/>
@@ -4496,8 +4538,8 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="17"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="25"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
       <c r="N124" s="17"/>
       <c r="O124" s="16"/>
       <c r="P124" s="16"/>
@@ -4513,8 +4555,8 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="17"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="25"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
       <c r="N125" s="17"/>
       <c r="O125" s="16"/>
       <c r="P125" s="16"/>
@@ -4530,8 +4572,8 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="17"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="25"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
       <c r="N126" s="17"/>
       <c r="O126" s="16"/>
       <c r="P126" s="16"/>
@@ -4547,8 +4589,8 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="17"/>
-      <c r="L127" s="25"/>
-      <c r="M127" s="25"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
       <c r="N127" s="17"/>
       <c r="O127" s="16"/>
       <c r="P127" s="16"/>
@@ -4564,8 +4606,8 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="17"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
       <c r="N128" s="17"/>
       <c r="O128" s="16"/>
       <c r="P128" s="16"/>
@@ -4581,8 +4623,8 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="17"/>
-      <c r="L129" s="25"/>
-      <c r="M129" s="25"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="24"/>
       <c r="N129" s="17"/>
       <c r="O129" s="16"/>
       <c r="P129" s="16"/>
@@ -4598,8 +4640,8 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="17"/>
-      <c r="L130" s="25"/>
-      <c r="M130" s="25"/>
+      <c r="L130" s="24"/>
+      <c r="M130" s="24"/>
       <c r="N130" s="17"/>
       <c r="O130" s="16"/>
       <c r="P130" s="16"/>
@@ -4615,8 +4657,8 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="17"/>
-      <c r="L131" s="25"/>
-      <c r="M131" s="25"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="24"/>
       <c r="N131" s="17"/>
       <c r="O131" s="16"/>
       <c r="P131" s="16"/>
@@ -4632,8 +4674,8 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
       <c r="K132" s="17"/>
-      <c r="L132" s="25"/>
-      <c r="M132" s="25"/>
+      <c r="L132" s="24"/>
+      <c r="M132" s="24"/>
       <c r="N132" s="17"/>
       <c r="O132" s="16"/>
       <c r="P132" s="16"/>
@@ -4649,8 +4691,8 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="17"/>
-      <c r="L133" s="25"/>
-      <c r="M133" s="25"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="24"/>
       <c r="N133" s="17"/>
       <c r="O133" s="16"/>
       <c r="P133" s="16"/>
@@ -4666,8 +4708,8 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="17"/>
-      <c r="L134" s="25"/>
-      <c r="M134" s="25"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="24"/>
       <c r="N134" s="17"/>
       <c r="O134" s="16"/>
       <c r="P134" s="16"/>
@@ -4683,8 +4725,8 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="17"/>
-      <c r="L135" s="25"/>
-      <c r="M135" s="25"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="24"/>
       <c r="N135" s="17"/>
       <c r="O135" s="16"/>
       <c r="P135" s="16"/>
@@ -4700,8 +4742,8 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="17"/>
-      <c r="L136" s="25"/>
-      <c r="M136" s="25"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="24"/>
       <c r="N136" s="17"/>
       <c r="O136" s="16"/>
       <c r="P136" s="16"/>
@@ -4717,8 +4759,8 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="17"/>
-      <c r="L137" s="25"/>
-      <c r="M137" s="25"/>
+      <c r="L137" s="24"/>
+      <c r="M137" s="24"/>
       <c r="N137" s="17"/>
       <c r="O137" s="16"/>
       <c r="P137" s="16"/>
@@ -4734,8 +4776,8 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="17"/>
-      <c r="L138" s="25"/>
-      <c r="M138" s="25"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="24"/>
       <c r="N138" s="17"/>
       <c r="O138" s="16"/>
       <c r="P138" s="16"/>
@@ -4751,8 +4793,8 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="17"/>
-      <c r="L139" s="25"/>
-      <c r="M139" s="25"/>
+      <c r="L139" s="24"/>
+      <c r="M139" s="24"/>
       <c r="N139" s="17"/>
       <c r="O139" s="16"/>
       <c r="P139" s="16"/>
@@ -4768,8 +4810,8 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="17"/>
-      <c r="L140" s="25"/>
-      <c r="M140" s="25"/>
+      <c r="L140" s="24"/>
+      <c r="M140" s="24"/>
       <c r="N140" s="17"/>
       <c r="O140" s="16"/>
       <c r="P140" s="16"/>
@@ -4785,8 +4827,8 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="17"/>
-      <c r="L141" s="25"/>
-      <c r="M141" s="25"/>
+      <c r="L141" s="24"/>
+      <c r="M141" s="24"/>
       <c r="N141" s="17"/>
       <c r="O141" s="16"/>
       <c r="P141" s="16"/>
@@ -4802,8 +4844,8 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="17"/>
-      <c r="L142" s="25"/>
-      <c r="M142" s="25"/>
+      <c r="L142" s="24"/>
+      <c r="M142" s="24"/>
       <c r="N142" s="17"/>
       <c r="O142" s="16"/>
       <c r="P142" s="16"/>
@@ -4819,8 +4861,8 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="17"/>
-      <c r="L143" s="25"/>
-      <c r="M143" s="25"/>
+      <c r="L143" s="24"/>
+      <c r="M143" s="24"/>
       <c r="N143" s="17"/>
       <c r="O143" s="16"/>
       <c r="P143" s="16"/>
@@ -4836,8 +4878,8 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="17"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
+      <c r="L144" s="24"/>
+      <c r="M144" s="24"/>
       <c r="N144" s="17"/>
       <c r="O144" s="16"/>
       <c r="P144" s="16"/>
@@ -4853,8 +4895,8 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="17"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="25"/>
+      <c r="L145" s="24"/>
+      <c r="M145" s="24"/>
       <c r="N145" s="17"/>
       <c r="O145" s="16"/>
       <c r="P145" s="16"/>
@@ -4870,8 +4912,8 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
       <c r="K146" s="17"/>
-      <c r="L146" s="25"/>
-      <c r="M146" s="25"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="24"/>
       <c r="N146" s="17"/>
       <c r="O146" s="16"/>
       <c r="P146" s="16"/>
@@ -4887,8 +4929,8 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="17"/>
-      <c r="L147" s="25"/>
-      <c r="M147" s="25"/>
+      <c r="L147" s="24"/>
+      <c r="M147" s="24"/>
       <c r="N147" s="17"/>
       <c r="O147" s="16"/>
       <c r="P147" s="16"/>
@@ -4904,8 +4946,8 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="17"/>
-      <c r="L148" s="25"/>
-      <c r="M148" s="25"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
       <c r="N148" s="17"/>
       <c r="O148" s="16"/>
       <c r="P148" s="16"/>
@@ -4921,8 +4963,8 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="17"/>
-      <c r="L149" s="25"/>
-      <c r="M149" s="25"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
       <c r="N149" s="17"/>
       <c r="O149" s="16"/>
       <c r="P149" s="16"/>
@@ -4938,8 +4980,8 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="17"/>
-      <c r="L150" s="25"/>
-      <c r="M150" s="25"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
       <c r="N150" s="17"/>
       <c r="O150" s="16"/>
       <c r="P150" s="16"/>
@@ -4955,8 +4997,8 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="17"/>
-      <c r="L151" s="25"/>
-      <c r="M151" s="25"/>
+      <c r="L151" s="24"/>
+      <c r="M151" s="24"/>
       <c r="N151" s="17"/>
       <c r="O151" s="16"/>
       <c r="P151" s="16"/>
@@ -4972,8 +5014,8 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="17"/>
-      <c r="L152" s="25"/>
-      <c r="M152" s="25"/>
+      <c r="L152" s="24"/>
+      <c r="M152" s="24"/>
       <c r="N152" s="17"/>
       <c r="O152" s="16"/>
       <c r="P152" s="16"/>
@@ -4989,8 +5031,8 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="17"/>
-      <c r="L153" s="25"/>
-      <c r="M153" s="25"/>
+      <c r="L153" s="24"/>
+      <c r="M153" s="24"/>
       <c r="N153" s="17"/>
       <c r="O153" s="16"/>
       <c r="P153" s="16"/>
@@ -5006,8 +5048,8 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="17"/>
-      <c r="L154" s="25"/>
-      <c r="M154" s="25"/>
+      <c r="L154" s="24"/>
+      <c r="M154" s="24"/>
       <c r="N154" s="17"/>
       <c r="O154" s="16"/>
       <c r="P154" s="16"/>
@@ -5023,8 +5065,8 @@
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="17"/>
-      <c r="L155" s="25"/>
-      <c r="M155" s="25"/>
+      <c r="L155" s="24"/>
+      <c r="M155" s="24"/>
       <c r="N155" s="17"/>
       <c r="O155" s="16"/>
       <c r="P155" s="16"/>
@@ -5040,8 +5082,8 @@
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="17"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="25"/>
+      <c r="L156" s="24"/>
+      <c r="M156" s="24"/>
       <c r="N156" s="17"/>
       <c r="O156" s="16"/>
       <c r="P156" s="16"/>
@@ -5057,8 +5099,8 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="17"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="25"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
       <c r="N157" s="17"/>
       <c r="O157" s="16"/>
       <c r="P157" s="16"/>
@@ -5074,8 +5116,8 @@
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="17"/>
-      <c r="L158" s="25"/>
-      <c r="M158" s="25"/>
+      <c r="L158" s="24"/>
+      <c r="M158" s="24"/>
       <c r="N158" s="17"/>
       <c r="O158" s="16"/>
       <c r="P158" s="16"/>
@@ -5091,8 +5133,8 @@
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="17"/>
-      <c r="L159" s="25"/>
-      <c r="M159" s="25"/>
+      <c r="L159" s="24"/>
+      <c r="M159" s="24"/>
       <c r="N159" s="17"/>
       <c r="O159" s="16"/>
       <c r="P159" s="16"/>
@@ -5108,8 +5150,8 @@
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="17"/>
-      <c r="L160" s="25"/>
-      <c r="M160" s="25"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="24"/>
       <c r="N160" s="17"/>
       <c r="O160" s="16"/>
       <c r="P160" s="16"/>
@@ -5125,8 +5167,8 @@
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="17"/>
-      <c r="L161" s="25"/>
-      <c r="M161" s="25"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
       <c r="N161" s="17"/>
       <c r="O161" s="16"/>
       <c r="P161" s="16"/>
@@ -5142,8 +5184,8 @@
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="17"/>
-      <c r="L162" s="25"/>
-      <c r="M162" s="25"/>
+      <c r="L162" s="24"/>
+      <c r="M162" s="24"/>
       <c r="N162" s="17"/>
       <c r="O162" s="16"/>
       <c r="P162" s="16"/>
@@ -5159,8 +5201,8 @@
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="17"/>
-      <c r="L163" s="25"/>
-      <c r="M163" s="25"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="24"/>
       <c r="N163" s="17"/>
       <c r="O163" s="16"/>
       <c r="P163" s="16"/>
@@ -5176,8 +5218,8 @@
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="17"/>
-      <c r="L164" s="25"/>
-      <c r="M164" s="25"/>
+      <c r="L164" s="24"/>
+      <c r="M164" s="24"/>
       <c r="N164" s="17"/>
       <c r="O164" s="16"/>
       <c r="P164" s="16"/>
@@ -5193,8 +5235,8 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="17"/>
-      <c r="L165" s="25"/>
-      <c r="M165" s="25"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
       <c r="N165" s="17"/>
       <c r="O165" s="16"/>
       <c r="P165" s="16"/>
@@ -5210,8 +5252,8 @@
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="17"/>
-      <c r="L166" s="25"/>
-      <c r="M166" s="25"/>
+      <c r="L166" s="24"/>
+      <c r="M166" s="24"/>
       <c r="N166" s="17"/>
       <c r="O166" s="16"/>
       <c r="P166" s="16"/>
@@ -5227,8 +5269,8 @@
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="17"/>
-      <c r="L167" s="25"/>
-      <c r="M167" s="25"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
       <c r="N167" s="17"/>
       <c r="O167" s="16"/>
       <c r="P167" s="16"/>
@@ -5244,8 +5286,8 @@
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="17"/>
-      <c r="L168" s="25"/>
-      <c r="M168" s="25"/>
+      <c r="L168" s="24"/>
+      <c r="M168" s="24"/>
       <c r="N168" s="17"/>
       <c r="O168" s="16"/>
       <c r="P168" s="16"/>
@@ -5261,8 +5303,8 @@
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="17"/>
-      <c r="L169" s="25"/>
-      <c r="M169" s="25"/>
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
       <c r="N169" s="17"/>
       <c r="O169" s="16"/>
       <c r="P169" s="16"/>
@@ -5278,8 +5320,8 @@
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="17"/>
-      <c r="L170" s="25"/>
-      <c r="M170" s="25"/>
+      <c r="L170" s="24"/>
+      <c r="M170" s="24"/>
       <c r="N170" s="17"/>
       <c r="O170" s="16"/>
       <c r="P170" s="16"/>
@@ -5295,8 +5337,8 @@
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="K171" s="17"/>
-      <c r="L171" s="25"/>
-      <c r="M171" s="25"/>
+      <c r="L171" s="24"/>
+      <c r="M171" s="24"/>
       <c r="N171" s="17"/>
       <c r="O171" s="16"/>
       <c r="P171" s="16"/>
@@ -5312,8 +5354,8 @@
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="17"/>
-      <c r="L172" s="25"/>
-      <c r="M172" s="25"/>
+      <c r="L172" s="24"/>
+      <c r="M172" s="24"/>
       <c r="N172" s="17"/>
       <c r="O172" s="16"/>
       <c r="P172" s="16"/>
@@ -5329,8 +5371,8 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="17"/>
-      <c r="L173" s="25"/>
-      <c r="M173" s="25"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
       <c r="N173" s="17"/>
       <c r="O173" s="16"/>
       <c r="P173" s="16"/>
@@ -5346,8 +5388,8 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="17"/>
-      <c r="L174" s="25"/>
-      <c r="M174" s="25"/>
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
       <c r="N174" s="17"/>
       <c r="O174" s="16"/>
       <c r="P174" s="16"/>
@@ -5363,8 +5405,8 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="17"/>
-      <c r="L175" s="25"/>
-      <c r="M175" s="25"/>
+      <c r="L175" s="24"/>
+      <c r="M175" s="24"/>
       <c r="N175" s="17"/>
       <c r="O175" s="16"/>
       <c r="P175" s="16"/>
@@ -5380,8 +5422,8 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="17"/>
-      <c r="L176" s="25"/>
-      <c r="M176" s="25"/>
+      <c r="L176" s="24"/>
+      <c r="M176" s="24"/>
       <c r="N176" s="17"/>
       <c r="O176" s="16"/>
       <c r="P176" s="16"/>
@@ -5397,8 +5439,8 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="17"/>
-      <c r="L177" s="25"/>
-      <c r="M177" s="25"/>
+      <c r="L177" s="24"/>
+      <c r="M177" s="24"/>
       <c r="N177" s="17"/>
       <c r="O177" s="16"/>
       <c r="P177" s="16"/>
@@ -5414,8 +5456,8 @@
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="17"/>
-      <c r="L178" s="25"/>
-      <c r="M178" s="25"/>
+      <c r="L178" s="24"/>
+      <c r="M178" s="24"/>
       <c r="N178" s="17"/>
       <c r="O178" s="16"/>
       <c r="P178" s="16"/>
@@ -5431,8 +5473,8 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="K179" s="17"/>
-      <c r="L179" s="25"/>
-      <c r="M179" s="25"/>
+      <c r="L179" s="24"/>
+      <c r="M179" s="24"/>
       <c r="N179" s="17"/>
       <c r="O179" s="16"/>
       <c r="P179" s="16"/>
@@ -5448,8 +5490,8 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="17"/>
-      <c r="L180" s="25"/>
-      <c r="M180" s="25"/>
+      <c r="L180" s="24"/>
+      <c r="M180" s="24"/>
       <c r="N180" s="17"/>
       <c r="O180" s="16"/>
       <c r="P180" s="16"/>
@@ -5465,8 +5507,8 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="17"/>
-      <c r="L181" s="25"/>
-      <c r="M181" s="25"/>
+      <c r="L181" s="24"/>
+      <c r="M181" s="24"/>
       <c r="N181" s="17"/>
       <c r="O181" s="16"/>
       <c r="P181" s="16"/>
@@ -5482,8 +5524,8 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="17"/>
-      <c r="L182" s="25"/>
-      <c r="M182" s="25"/>
+      <c r="L182" s="24"/>
+      <c r="M182" s="24"/>
       <c r="N182" s="17"/>
       <c r="O182" s="16"/>
       <c r="P182" s="16"/>
@@ -5499,8 +5541,8 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="17"/>
-      <c r="L183" s="25"/>
-      <c r="M183" s="25"/>
+      <c r="L183" s="24"/>
+      <c r="M183" s="24"/>
       <c r="N183" s="17"/>
       <c r="O183" s="16"/>
       <c r="P183" s="16"/>
@@ -5516,8 +5558,8 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="K184" s="17"/>
-      <c r="L184" s="25"/>
-      <c r="M184" s="25"/>
+      <c r="L184" s="24"/>
+      <c r="M184" s="24"/>
       <c r="N184" s="17"/>
       <c r="O184" s="16"/>
       <c r="P184" s="16"/>
@@ -5533,8 +5575,8 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="K185" s="17"/>
-      <c r="L185" s="25"/>
-      <c r="M185" s="25"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="24"/>
       <c r="N185" s="17"/>
       <c r="O185" s="16"/>
       <c r="P185" s="16"/>
@@ -5550,8 +5592,8 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="17"/>
-      <c r="L186" s="25"/>
-      <c r="M186" s="25"/>
+      <c r="L186" s="24"/>
+      <c r="M186" s="24"/>
       <c r="N186" s="17"/>
       <c r="O186" s="16"/>
       <c r="P186" s="16"/>
@@ -5567,8 +5609,8 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="17"/>
-      <c r="L187" s="25"/>
-      <c r="M187" s="25"/>
+      <c r="L187" s="24"/>
+      <c r="M187" s="24"/>
       <c r="N187" s="17"/>
       <c r="O187" s="16"/>
       <c r="P187" s="16"/>
@@ -5584,8 +5626,8 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="17"/>
-      <c r="L188" s="25"/>
-      <c r="M188" s="25"/>
+      <c r="L188" s="24"/>
+      <c r="M188" s="24"/>
       <c r="N188" s="17"/>
       <c r="O188" s="16"/>
       <c r="P188" s="16"/>
@@ -5601,8 +5643,8 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="K189" s="17"/>
-      <c r="L189" s="25"/>
-      <c r="M189" s="25"/>
+      <c r="L189" s="24"/>
+      <c r="M189" s="24"/>
       <c r="N189" s="17"/>
       <c r="O189" s="16"/>
       <c r="P189" s="16"/>
@@ -5618,8 +5660,8 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="17"/>
-      <c r="L190" s="25"/>
-      <c r="M190" s="25"/>
+      <c r="L190" s="24"/>
+      <c r="M190" s="24"/>
       <c r="N190" s="17"/>
       <c r="O190" s="16"/>
       <c r="P190" s="16"/>
@@ -5635,8 +5677,8 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="17"/>
-      <c r="L191" s="25"/>
-      <c r="M191" s="25"/>
+      <c r="L191" s="24"/>
+      <c r="M191" s="24"/>
       <c r="N191" s="17"/>
       <c r="O191" s="16"/>
       <c r="P191" s="16"/>
@@ -5652,8 +5694,8 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="17"/>
-      <c r="L192" s="25"/>
-      <c r="M192" s="25"/>
+      <c r="L192" s="24"/>
+      <c r="M192" s="24"/>
       <c r="N192" s="17"/>
       <c r="O192" s="16"/>
       <c r="P192" s="16"/>
@@ -5669,8 +5711,8 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="17"/>
-      <c r="L193" s="25"/>
-      <c r="M193" s="25"/>
+      <c r="L193" s="24"/>
+      <c r="M193" s="24"/>
       <c r="N193" s="17"/>
       <c r="O193" s="16"/>
       <c r="P193" s="16"/>
@@ -5686,8 +5728,8 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="17"/>
-      <c r="L194" s="25"/>
-      <c r="M194" s="25"/>
+      <c r="L194" s="24"/>
+      <c r="M194" s="24"/>
       <c r="N194" s="17"/>
       <c r="O194" s="16"/>
       <c r="P194" s="16"/>
@@ -5703,8 +5745,8 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="17"/>
-      <c r="L195" s="25"/>
-      <c r="M195" s="25"/>
+      <c r="L195" s="24"/>
+      <c r="M195" s="24"/>
       <c r="N195" s="17"/>
       <c r="O195" s="16"/>
       <c r="P195" s="16"/>
@@ -5720,8 +5762,8 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="17"/>
-      <c r="L196" s="25"/>
-      <c r="M196" s="25"/>
+      <c r="L196" s="24"/>
+      <c r="M196" s="24"/>
       <c r="N196" s="17"/>
       <c r="O196" s="16"/>
       <c r="P196" s="16"/>
@@ -5737,8 +5779,8 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
       <c r="K197" s="17"/>
-      <c r="L197" s="25"/>
-      <c r="M197" s="25"/>
+      <c r="L197" s="24"/>
+      <c r="M197" s="24"/>
       <c r="N197" s="17"/>
       <c r="O197" s="16"/>
       <c r="P197" s="16"/>
@@ -5754,8 +5796,8 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="17"/>
-      <c r="L198" s="25"/>
-      <c r="M198" s="25"/>
+      <c r="L198" s="24"/>
+      <c r="M198" s="24"/>
       <c r="N198" s="17"/>
       <c r="O198" s="16"/>
       <c r="P198" s="16"/>
@@ -5771,8 +5813,8 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="17"/>
-      <c r="L199" s="25"/>
-      <c r="M199" s="25"/>
+      <c r="L199" s="24"/>
+      <c r="M199" s="24"/>
       <c r="N199" s="17"/>
       <c r="O199" s="16"/>
       <c r="P199" s="16"/>
@@ -5788,8 +5830,8 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="17"/>
-      <c r="L200" s="25"/>
-      <c r="M200" s="25"/>
+      <c r="L200" s="24"/>
+      <c r="M200" s="24"/>
       <c r="N200" s="17"/>
       <c r="O200" s="16"/>
       <c r="P200" s="16"/>
@@ -5805,8 +5847,8 @@
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="K201" s="17"/>
-      <c r="L201" s="25"/>
-      <c r="M201" s="25"/>
+      <c r="L201" s="24"/>
+      <c r="M201" s="24"/>
       <c r="N201" s="17"/>
       <c r="O201" s="16"/>
       <c r="P201" s="16"/>
@@ -5822,8 +5864,8 @@
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
       <c r="K202" s="17"/>
-      <c r="L202" s="25"/>
-      <c r="M202" s="25"/>
+      <c r="L202" s="24"/>
+      <c r="M202" s="24"/>
       <c r="N202" s="17"/>
       <c r="O202" s="16"/>
       <c r="P202" s="16"/>
@@ -5839,8 +5881,8 @@
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
       <c r="K203" s="17"/>
-      <c r="L203" s="25"/>
-      <c r="M203" s="25"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="24"/>
       <c r="N203" s="17"/>
       <c r="O203" s="16"/>
       <c r="P203" s="16"/>
@@ -5856,8 +5898,8 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="17"/>
-      <c r="L204" s="25"/>
-      <c r="M204" s="25"/>
+      <c r="L204" s="24"/>
+      <c r="M204" s="24"/>
       <c r="N204" s="17"/>
       <c r="O204" s="16"/>
       <c r="P204" s="16"/>
@@ -5873,8 +5915,8 @@
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
       <c r="K205" s="17"/>
-      <c r="L205" s="25"/>
-      <c r="M205" s="25"/>
+      <c r="L205" s="24"/>
+      <c r="M205" s="24"/>
       <c r="N205" s="17"/>
       <c r="O205" s="16"/>
       <c r="P205" s="16"/>
@@ -5890,8 +5932,8 @@
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="K206" s="17"/>
-      <c r="L206" s="25"/>
-      <c r="M206" s="25"/>
+      <c r="L206" s="24"/>
+      <c r="M206" s="24"/>
       <c r="N206" s="17"/>
       <c r="O206" s="16"/>
       <c r="P206" s="16"/>
@@ -5907,8 +5949,8 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
       <c r="K207" s="17"/>
-      <c r="L207" s="25"/>
-      <c r="M207" s="25"/>
+      <c r="L207" s="24"/>
+      <c r="M207" s="24"/>
       <c r="N207" s="17"/>
       <c r="O207" s="16"/>
       <c r="P207" s="16"/>
@@ -5924,8 +5966,8 @@
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
       <c r="K208" s="17"/>
-      <c r="L208" s="25"/>
-      <c r="M208" s="25"/>
+      <c r="L208" s="24"/>
+      <c r="M208" s="24"/>
       <c r="N208" s="17"/>
       <c r="O208" s="16"/>
       <c r="P208" s="16"/>
@@ -5941,8 +5983,8 @@
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
       <c r="K209" s="17"/>
-      <c r="L209" s="25"/>
-      <c r="M209" s="25"/>
+      <c r="L209" s="24"/>
+      <c r="M209" s="24"/>
       <c r="N209" s="17"/>
       <c r="O209" s="16"/>
       <c r="P209" s="16"/>

--- a/EvaluationData/ReferencSet/Uncertainty_Template_ReferenceSet.xlsx
+++ b/EvaluationData/ReferencSet/Uncertainty_Template_ReferenceSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\ReferencSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96840985-1A0C-42E0-A679-A99C6D2DBD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E2DAC-DF80-4A89-B9A8-EA3CC74AF372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -365,111 +365,6 @@
     <t>Is the deployment provider trustworthy?</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>U14</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>U16</t>
-  </si>
-  <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>U18</t>
-  </si>
-  <si>
-    <t>U20</t>
-  </si>
-  <si>
-    <t>U21</t>
-  </si>
-  <si>
-    <t>U22</t>
-  </si>
-  <si>
-    <t>U23</t>
-  </si>
-  <si>
-    <t>U24</t>
-  </si>
-  <si>
     <t>Uncertainty Type</t>
   </si>
   <si>
@@ -477,9 +372,6 @@
 Type</t>
   </si>
   <si>
-    <t>U19</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -490,6 +382,114 @@
   </si>
   <si>
     <t>Which authentication mechanisms are used?</t>
+  </si>
+  <si>
+    <t>RA1</t>
+  </si>
+  <si>
+    <t>RA2</t>
+  </si>
+  <si>
+    <t>RA3</t>
+  </si>
+  <si>
+    <t>RA4</t>
+  </si>
+  <si>
+    <t>RA5</t>
+  </si>
+  <si>
+    <t>RA6</t>
+  </si>
+  <si>
+    <t>RA7</t>
+  </si>
+  <si>
+    <t>RA8</t>
+  </si>
+  <si>
+    <t>RA9</t>
+  </si>
+  <si>
+    <t>RA10</t>
+  </si>
+  <si>
+    <t>RA11</t>
+  </si>
+  <si>
+    <t>RA12</t>
+  </si>
+  <si>
+    <t>RU1</t>
+  </si>
+  <si>
+    <t>RU2</t>
+  </si>
+  <si>
+    <t>RU3</t>
+  </si>
+  <si>
+    <t>RU13</t>
+  </si>
+  <si>
+    <t>RU5</t>
+  </si>
+  <si>
+    <t>RU14</t>
+  </si>
+  <si>
+    <t>RU15</t>
+  </si>
+  <si>
+    <t>RU4</t>
+  </si>
+  <si>
+    <t>RU16</t>
+  </si>
+  <si>
+    <t>RU10</t>
+  </si>
+  <si>
+    <t>RU11</t>
+  </si>
+  <si>
+    <t>RU6</t>
+  </si>
+  <si>
+    <t>RU7</t>
+  </si>
+  <si>
+    <t>RU17</t>
+  </si>
+  <si>
+    <t>RU18</t>
+  </si>
+  <si>
+    <t>RU8</t>
+  </si>
+  <si>
+    <t>RU19</t>
+  </si>
+  <si>
+    <t>RU20</t>
+  </si>
+  <si>
+    <t>RU21</t>
+  </si>
+  <si>
+    <t>RU9</t>
+  </si>
+  <si>
+    <t>RU22</t>
+  </si>
+  <si>
+    <t>RU12</t>
+  </si>
+  <si>
+    <t>RU23</t>
+  </si>
+  <si>
+    <t>RU24</t>
   </si>
 </sst>
 </file>
@@ -698,31 +698,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,35 +1033,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="37" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>54</v>
@@ -1110,12 +1110,12 @@
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="4" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1123,10 +1123,10 @@
         <v>98</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>69</v>
@@ -1178,31 +1178,31 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>106</v>
+      <c r="B5" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="38" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1237,19 +1237,19 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
@@ -1282,19 +1282,19 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="2" t="s">
         <v>57</v>
       </c>
@@ -1327,19 +1327,19 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="29" t="s">
         <v>57</v>
       </c>
@@ -1372,19 +1372,19 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="23" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1417,31 +1417,31 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>107</v>
+      <c r="B10" s="38" t="s">
+        <v>113</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1476,19 +1476,19 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5" t="s">
         <v>56</v>
       </c>
@@ -1521,19 +1521,19 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="22" t="s">
         <v>57</v>
       </c>
@@ -1566,19 +1566,19 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="12" t="s">
         <v>57</v>
       </c>
@@ -1611,31 +1611,31 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>108</v>
+      <c r="B14" s="38" t="s">
+        <v>114</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="24" t="s">
@@ -1670,20 +1670,20 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="43" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="36" t="s">
         <v>56</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1715,19 +1715,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="24" t="s">
         <v>57</v>
       </c>
@@ -1760,19 +1760,19 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="29" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="29" t="s">
         <v>58</v>
       </c>
@@ -1805,19 +1805,19 @@
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="24" t="s">
         <v>57</v>
       </c>
@@ -1850,31 +1850,31 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>109</v>
+      <c r="B19" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="24" t="s">
@@ -1909,19 +1909,19 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="24" t="s">
         <v>56</v>
       </c>
@@ -1954,19 +1954,19 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="28" t="s">
         <v>57</v>
       </c>
@@ -2003,13 +2003,13 @@
         <v>70</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>7</v>
@@ -2026,7 +2026,7 @@
       <c r="I22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="36" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -2058,34 +2058,34 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>111</v>
+      <c r="B23" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="36" t="s">
         <v>57</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -2117,19 +2117,19 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="28" t="s">
         <v>57</v>
       </c>
@@ -2162,19 +2162,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="28" t="s">
         <v>57</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="Q25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="43" t="s">
+      <c r="R25" s="36" t="s">
         <v>50</v>
       </c>
       <c r="S25" s="5" t="s">
@@ -2207,31 +2207,31 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>112</v>
+      <c r="B26" s="38" t="s">
+        <v>118</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="38" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="28" t="s">
@@ -2266,19 +2266,19 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="28" t="s">
         <v>57</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="Q27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R27" s="43" t="s">
+      <c r="R27" s="36" t="s">
         <v>50</v>
       </c>
       <c r="S27" s="12" t="s">
@@ -2311,19 +2311,19 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="28" t="s">
         <v>57</v>
       </c>
@@ -2356,20 +2356,20 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="43" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="36" t="s">
         <v>56</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -2401,31 +2401,31 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>113</v>
+      <c r="B30" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J30" s="24" t="s">
@@ -2460,20 +2460,20 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="12" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="44" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="37" t="s">
         <v>58</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -2505,19 +2505,19 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="12" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
       <c r="J32" s="24" t="s">
         <v>57</v>
       </c>
@@ -2550,19 +2550,19 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="15" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="24" t="s">
         <v>14</v>
       </c>
@@ -2595,19 +2595,19 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="29" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
+        <v>110</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
       <c r="J34" s="29" t="s">
         <v>57</v>
       </c>
@@ -2640,19 +2640,19 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="24" t="s">
         <v>57</v>
       </c>
@@ -2685,31 +2685,31 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="39" t="s">
-        <v>114</v>
+      <c r="B36" s="38" t="s">
+        <v>120</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="24" t="s">
@@ -2744,20 +2744,20 @@
       </c>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="12" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="44" t="s">
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="37" t="s">
         <v>58</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -2789,19 +2789,19 @@
       </c>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="12" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="5" t="s">
         <v>57</v>
       </c>
@@ -2834,19 +2834,19 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="12" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="12" t="s">
         <v>58</v>
       </c>
@@ -2879,19 +2879,19 @@
       </c>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="12" t="s">
         <v>57</v>
       </c>
@@ -2924,19 +2924,19 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="15" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
       <c r="J41" s="15" t="s">
         <v>14</v>
       </c>
@@ -2969,19 +2969,19 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="29" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+        <v>110</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="29" t="s">
         <v>57</v>
       </c>
@@ -3014,19 +3014,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
       <c r="J43" s="5" t="s">
         <v>58</v>
       </c>
@@ -3063,15 +3063,15 @@
         <v>72</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="21" t="s">
@@ -3122,10 +3122,10 @@
         <v>97</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>87</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="8"/>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="B50" s="34"/>
       <c r="C50" s="8"/>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="B51" s="35"/>
       <c r="E51" s="5"/>
@@ -5994,16 +5994,41 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="J1:S1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="I5:I9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="A26:A29"/>
@@ -6020,41 +6045,16 @@
     <mergeCell ref="H23:H25"/>
     <mergeCell ref="F30:F35"/>
     <mergeCell ref="E30:E35"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="I5:I9"/>
-    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="E36:E43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="17">

--- a/EvaluationData/ReferencSet/Uncertainty_Template_ReferenceSet.xlsx
+++ b/EvaluationData/ReferencSet/Uncertainty_Template_ReferenceSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Desktop\Masterarbeit\UncertaintyImpactAnalysis\EvaluationData\ReferencSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E2DAC-DF80-4A89-B9A8-EA3CC74AF372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A8DF2-AEC5-49E5-9D5A-34CFF55837DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Deployment Location</t>
-  </si>
-  <si>
-    <t>Architecture-related Categories</t>
   </si>
   <si>
     <t>Never</t>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>RU24</t>
+  </si>
+  <si>
+    <t>ADD-related Categories</t>
   </si>
 </sst>
 </file>
@@ -704,25 +704,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:S209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="E1" sqref="E1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,35 +1033,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1069,76 +1069,76 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -1150,25 +1150,25 @@
         <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>12</v>
@@ -1178,56 +1178,56 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>112</v>
+      <c r="A5" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>12</v>
@@ -1237,81 +1237,81 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+        <v>73</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+        <v>74</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>11</v>
@@ -1327,42 +1327,42 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+        <v>100</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P8" s="29" t="s">
         <v>9</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>12</v>
@@ -1372,42 +1372,42 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+        <v>68</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>12</v>
@@ -1417,95 +1417,95 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>113</v>
+      <c r="B10" s="41" t="s">
+        <v>112</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="38" t="s">
+      <c r="F10" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+        <v>103</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>11</v>
@@ -1514,43 +1514,43 @@
         <v>15</v>
       </c>
       <c r="R11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="22" t="s">
         <v>11</v>
@@ -1566,42 +1566,42 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+        <v>72</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>12</v>
@@ -1611,56 +1611,56 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>114</v>
+      <c r="A14" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="O14" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>12</v>
@@ -1670,36 +1670,36 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+        <v>77</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="16" t="s">
         <v>11</v>
@@ -1715,42 +1715,42 @@
       </c>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>12</v>
@@ -1760,87 +1760,87 @@
       </c>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+        <v>88</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>36</v>
       </c>
       <c r="P17" s="29" t="s">
         <v>9</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R17" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S17" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+        <v>78</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R18" s="12" t="s">
         <v>12</v>
@@ -1850,56 +1850,56 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="38" t="s">
+      <c r="F19" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R19" s="12" t="s">
         <v>12</v>
@@ -1909,87 +1909,87 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+        <v>73</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>6</v>
@@ -2000,25 +2000,25 @@
     </row>
     <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>8</v>
@@ -2027,28 +2027,28 @@
         <v>9</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R22" s="12" t="s">
         <v>12</v>
@@ -2058,56 +2058,56 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>117</v>
+      <c r="A23" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="38" t="s">
+      <c r="F23" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R23" s="12" t="s">
         <v>12</v>
@@ -2117,36 +2117,36 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+        <v>80</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="M24" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="P24" s="16" t="s">
         <v>9</v>
@@ -2155,43 +2155,43 @@
         <v>15</v>
       </c>
       <c r="R24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S24" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
+        <v>81</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P25" s="16" t="s">
         <v>9</v>
@@ -2200,63 +2200,63 @@
         <v>15</v>
       </c>
       <c r="R25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="S25" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="41" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="28" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P26" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>12</v>
@@ -2266,36 +2266,36 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
+        <v>102</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="16" t="s">
         <v>11</v>
@@ -2304,43 +2304,43 @@
         <v>15</v>
       </c>
       <c r="R27" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S27" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+        <v>83</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P28" s="16" t="s">
         <v>11</v>
@@ -2349,43 +2349,43 @@
         <v>15</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
+        <v>84</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P29" s="16" t="s">
         <v>11</v>
@@ -2394,63 +2394,63 @@
         <v>15</v>
       </c>
       <c r="R29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S29" s="5" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>119</v>
+      <c r="A30" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>118</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="O30" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P30" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>12</v>
@@ -2460,36 +2460,36 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+        <v>91</v>
+      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L31" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="M31" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="P31" s="16" t="s">
         <v>9</v>
@@ -2498,49 +2498,49 @@
         <v>15</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+        <v>79</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P32" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q32" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>12</v>
@@ -2550,42 +2550,42 @@
       </c>
     </row>
     <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
+        <v>86</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="24" t="s">
         <v>14</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P33" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R33" s="15" t="s">
         <v>12</v>
@@ -2595,42 +2595,42 @@
       </c>
     </row>
     <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
+        <v>109</v>
+      </c>
+      <c r="E34" s="44"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M34" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N34" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O34" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P34" s="29" t="s">
         <v>9</v>
       </c>
       <c r="Q34" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R34" s="29" t="s">
         <v>12</v>
@@ -2640,42 +2640,42 @@
       </c>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
+        <v>87</v>
+      </c>
+      <c r="E35" s="44"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P35" s="16" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>12</v>
@@ -2685,95 +2685,95 @@
       </c>
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>120</v>
+      <c r="A36" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="38" t="s">
+      <c r="F36" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L36" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N36" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="P36" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q36" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
+        <v>91</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L37" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="M37" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="P37" s="16" t="s">
         <v>9</v>
@@ -2782,49 +2782,49 @@
         <v>15</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
+        <v>79</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P38" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q38" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>12</v>
@@ -2834,36 +2834,36 @@
       </c>
     </row>
     <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
+        <v>90</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="P39" s="16" t="s">
         <v>9</v>
@@ -2872,49 +2872,49 @@
         <v>15</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
+        <v>78</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P40" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q40" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R40" s="12" t="s">
         <v>12</v>
@@ -2924,42 +2924,42 @@
       </c>
     </row>
     <row r="41" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
+        <v>86</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P41" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q41" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R41" s="15" t="s">
         <v>12</v>
@@ -2969,42 +2969,42 @@
       </c>
     </row>
     <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+        <v>109</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
       <c r="J42" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L42" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M42" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N42" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O42" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P42" s="29" t="s">
         <v>9</v>
       </c>
       <c r="Q42" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R42" s="29" t="s">
         <v>12</v>
@@ -3014,36 +3014,36 @@
       </c>
     </row>
     <row r="43" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
+        <v>89</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L43" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="M43" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N43" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="P43" s="16" t="s">
         <v>9</v>
@@ -3052,33 +3052,33 @@
         <v>15</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H44" s="21" t="s">
         <v>15</v>
@@ -3087,28 +3087,28 @@
         <v>9</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P44" s="16" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>12</v>
@@ -3119,25 +3119,25 @@
     </row>
     <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>8</v>
@@ -3149,25 +3149,25 @@
         <v>14</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P45" s="16" t="s">
         <v>9</v>
       </c>
       <c r="Q45" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R45" s="5" t="s">
         <v>12</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="49" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="8"/>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="50" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="34"/>
       <c r="C50" s="8"/>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="35"/>
       <c r="E51" s="5"/>
@@ -5994,6 +5994,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="H36:H43"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G14:G18"/>
     <mergeCell ref="J1:S1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A10:A13"/>
@@ -6010,51 +6055,6 @@
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="I5:I9"/>
     <mergeCell ref="H5:H9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="H36:H43"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="E36:E43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="17">
